--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_156.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_156.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,84 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09980620155038759</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['C:min', 'C:min', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[('0:00:25.880000', '0:00:33.500000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:14.420000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3055555555555556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.48, 56.44)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.42, 19.14)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+          <t>[('0:01:16.585782', '0:01:19.023877')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -569,552 +580,568 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1340909090909091</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['D:min', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9), (15.3, 17.78)]</t>
+          <t>[['G#:min', 'B/5', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27), (25.22, 27.17)]</t>
+          <t>[('0:00:12.780907', '0:00:16.345170')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:03.466145', '0:00:07.994036')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.327485380116959</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09027777777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>[['F#:7', 'B:maj', 'F#:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(64.476575, 70.099405)]</t>
+          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.459543, 6.357029)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:08.200000', '0:00:10.200000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:44.070000', '0:00:46.310000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1418803418803419</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(53.5, 62.72)]</t>
+          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(48.170328, 59.292687)]</t>
+          <t>[('0:00:53', '0:01:02')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.860000', '0:00:23.820000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Gb', 'B', 'Gb', 'B', 'Gb']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.367913, 23.667505)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(167.747, 173.156)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09973474801061008</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.14, 19.06)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(54.072, 60.759)]</t>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0833976833976834</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.711383, 18.983854)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.043, 10.286)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4555555555555556</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.302038, 6.740158)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D/5', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[['D', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[('0:01:02.291000', '0:01:08.376000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:47.804648', '0:00:55.548503')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3523809523809524</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'D/7', 'D/6']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.756394)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(52.12, 55.48)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2358870967741936</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3786549707602339</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['D:maj/F#', 'D:maj/A', 'A:7'], ['A:7', 'D:maj', 'A:7'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>[['C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.1, 5.91), (7.05, 9.89), (21.5, 24.4), (2.53, 4.77)]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06), (244.36, 251.28), (4.3, 12.38), (54.26, 61.02)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:27.686530', '0:01:44.985396')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08181203515889114</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'B:7', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(63.474331, 71.056785)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(48.25, 53.91)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.217948717948718</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7/3', 'A', 'A:min/b3', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj/A', 'D:min/A', 'A:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(21.908049, 27.840748)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.1, 13.5)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(69.86, 73.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(63.6, 66.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
